--- a/data/init_montage_table.xlsx
+++ b/data/init_montage_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,43 +527,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-41.30192194725905</v>
+        <v>-39.52874949013107</v>
       </c>
       <c r="C3" t="n">
-        <v>-36.30192194725905</v>
+        <v>-34.52874949013107</v>
       </c>
       <c r="D3" t="n">
-        <v>-31.30192194725904</v>
+        <v>-29.52874949013107</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.30192194725904</v>
+        <v>-19.52874949013107</v>
       </c>
       <c r="F3" t="n">
-        <v>-16.30192194725904</v>
+        <v>-14.52874949013107</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.30192194725904</v>
+        <v>-12.52874949013107</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.30192194725904</v>
+        <v>-9.528749490131069</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.301921947259043</v>
+        <v>-7.528749490131069</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.301921947259043</v>
+        <v>-4.528749490131069</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.301921947259043</v>
+        <v>-2.528749490131069</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.301921947259043</v>
+        <v>0.4712505098689306</v>
       </c>
       <c r="M3" t="n">
-        <v>3.698078052740957</v>
+        <v>5.471250509868931</v>
       </c>
       <c r="N3" t="n">
-        <v>8.698078052740957</v>
+        <v>10.47125050986893</v>
       </c>
     </row>
     <row r="4">
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.047</v>
+        <v>65.55200000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>58.773</v>
+        <v>63.169</v>
       </c>
       <c r="D5" t="n">
-        <v>57.564</v>
+        <v>60.952</v>
       </c>
       <c r="E5" t="n">
-        <v>55.321</v>
+        <v>56.97</v>
       </c>
       <c r="F5" t="n">
-        <v>54.28</v>
+        <v>114.313</v>
       </c>
       <c r="G5" t="n">
-        <v>53.877</v>
+        <v>81.13200000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>53.287</v>
+        <v>116.648</v>
       </c>
       <c r="I5" t="n">
-        <v>52.903</v>
+        <v>84.09</v>
       </c>
       <c r="J5" t="n">
-        <v>52.34</v>
+        <v>51.958</v>
       </c>
       <c r="K5" t="n">
-        <v>51.973</v>
+        <v>51.364</v>
       </c>
       <c r="L5" t="n">
-        <v>51.435</v>
+        <v>50.503</v>
       </c>
       <c r="M5" t="n">
-        <v>50.569</v>
+        <v>49.142</v>
       </c>
       <c r="N5" t="n">
-        <v>49.741</v>
+        <v>47.866</v>
       </c>
     </row>
     <row r="6">
@@ -665,43 +665,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.459</v>
+        <v>32.16</v>
       </c>
       <c r="C6" t="n">
-        <v>28.834</v>
+        <v>30.991</v>
       </c>
       <c r="D6" t="n">
-        <v>28.241</v>
+        <v>29.903</v>
       </c>
       <c r="E6" t="n">
-        <v>27.14</v>
+        <v>27.949</v>
       </c>
       <c r="F6" t="n">
-        <v>26.63</v>
+        <v>56.082</v>
       </c>
       <c r="G6" t="n">
-        <v>26.432</v>
+        <v>39.803</v>
       </c>
       <c r="H6" t="n">
-        <v>26.143</v>
+        <v>57.228</v>
       </c>
       <c r="I6" t="n">
-        <v>25.954</v>
+        <v>41.255</v>
       </c>
       <c r="J6" t="n">
-        <v>25.678</v>
+        <v>25.491</v>
       </c>
       <c r="K6" t="n">
-        <v>25.498</v>
+        <v>25.199</v>
       </c>
       <c r="L6" t="n">
-        <v>25.234</v>
+        <v>24.777</v>
       </c>
       <c r="M6" t="n">
-        <v>24.809</v>
+        <v>24.109</v>
       </c>
       <c r="N6" t="n">
-        <v>24.403</v>
+        <v>23.483</v>
       </c>
     </row>
     <row r="7">
@@ -711,43 +711,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1830.249</v>
+        <v>1998.043</v>
       </c>
       <c r="C7" t="n">
-        <v>1791.417</v>
+        <v>1925.409</v>
       </c>
       <c r="D7" t="n">
-        <v>1754.567</v>
+        <v>1857.834</v>
       </c>
       <c r="E7" t="n">
-        <v>1686.199</v>
+        <v>1736.461</v>
       </c>
       <c r="F7" t="n">
-        <v>1654.469</v>
+        <v>1279.222</v>
       </c>
       <c r="G7" t="n">
-        <v>1642.186</v>
+        <v>1445.798</v>
       </c>
       <c r="H7" t="n">
-        <v>1624.202</v>
+        <v>1239.48</v>
       </c>
       <c r="I7" t="n">
-        <v>1612.498</v>
+        <v>1385.533</v>
       </c>
       <c r="J7" t="n">
-        <v>1595.338</v>
+        <v>1583.694</v>
       </c>
       <c r="K7" t="n">
-        <v>1584.151</v>
+        <v>1565.589</v>
       </c>
       <c r="L7" t="n">
-        <v>1567.753</v>
+        <v>1539.345</v>
       </c>
       <c r="M7" t="n">
-        <v>1541.357</v>
+        <v>1497.862</v>
       </c>
       <c r="N7" t="n">
-        <v>1516.119</v>
+        <v>1458.969</v>
       </c>
     </row>
     <row r="8">
@@ -757,43 +757,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.052</v>
+        <v>24.074</v>
       </c>
       <c r="C8" t="n">
-        <v>21.584</v>
+        <v>23.199</v>
       </c>
       <c r="D8" t="n">
-        <v>21.14</v>
+        <v>22.384</v>
       </c>
       <c r="E8" t="n">
-        <v>20.316</v>
+        <v>20.921</v>
       </c>
       <c r="F8" t="n">
-        <v>19.934</v>
+        <v>41.981</v>
       </c>
       <c r="G8" t="n">
-        <v>19.786</v>
+        <v>29.795</v>
       </c>
       <c r="H8" t="n">
-        <v>19.57</v>
+        <v>42.839</v>
       </c>
       <c r="I8" t="n">
-        <v>19.428</v>
+        <v>30.882</v>
       </c>
       <c r="J8" t="n">
-        <v>19.221</v>
+        <v>19.082</v>
       </c>
       <c r="K8" t="n">
-        <v>19.087</v>
+        <v>18.863</v>
       </c>
       <c r="L8" t="n">
-        <v>18.889</v>
+        <v>18.547</v>
       </c>
       <c r="M8" t="n">
-        <v>18.571</v>
+        <v>18.047</v>
       </c>
       <c r="N8" t="n">
-        <v>18.267</v>
+        <v>17.578</v>
       </c>
     </row>
     <row r="9">
@@ -803,43 +803,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.237</v>
+        <v>4.797</v>
       </c>
       <c r="C9" t="n">
-        <v>5.351</v>
+        <v>4.978</v>
       </c>
       <c r="D9" t="n">
-        <v>5.463</v>
+        <v>5.159</v>
       </c>
       <c r="E9" t="n">
-        <v>5.685</v>
+        <v>5.52</v>
       </c>
       <c r="F9" t="n">
-        <v>5.794</v>
+        <v>7.496</v>
       </c>
       <c r="G9" t="n">
-        <v>5.837</v>
+        <v>6.631</v>
       </c>
       <c r="H9" t="n">
-        <v>5.902</v>
+        <v>7.737</v>
       </c>
       <c r="I9" t="n">
-        <v>5.945</v>
+        <v>6.92</v>
       </c>
       <c r="J9" t="n">
-        <v>6.009</v>
+        <v>6.053</v>
       </c>
       <c r="K9" t="n">
-        <v>6.051</v>
+        <v>6.123</v>
       </c>
       <c r="L9" t="n">
-        <v>6.115</v>
+        <v>6.228</v>
       </c>
       <c r="M9" t="n">
-        <v>6.22</v>
+        <v>6.4</v>
       </c>
       <c r="N9" t="n">
-        <v>6.323</v>
+        <v>6.571</v>
       </c>
     </row>
     <row r="10">
@@ -849,43 +849,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.231</v>
+        <v>6.623</v>
       </c>
       <c r="C10" t="n">
-        <v>7.388</v>
+        <v>6.874</v>
       </c>
       <c r="D10" t="n">
-        <v>7.544</v>
+        <v>7.124</v>
       </c>
       <c r="E10" t="n">
-        <v>7.85</v>
+        <v>7.623</v>
       </c>
       <c r="F10" t="n">
-        <v>8.000999999999999</v>
+        <v>10.354</v>
       </c>
       <c r="G10" t="n">
-        <v>8.061</v>
+        <v>9.157999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>8.15</v>
+        <v>10.686</v>
       </c>
       <c r="I10" t="n">
-        <v>8.210000000000001</v>
+        <v>9.557</v>
       </c>
       <c r="J10" t="n">
-        <v>8.298</v>
+        <v>8.359</v>
       </c>
       <c r="K10" t="n">
-        <v>8.356999999999999</v>
+        <v>8.456</v>
       </c>
       <c r="L10" t="n">
-        <v>8.444000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M10" t="n">
-        <v>8.589</v>
+        <v>8.839</v>
       </c>
       <c r="N10" t="n">
-        <v>8.731999999999999</v>
+        <v>9.074999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -895,43 +895,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.735</v>
+        <v>4.241</v>
       </c>
       <c r="C11" t="n">
-        <v>2.794</v>
+        <v>4.401</v>
       </c>
       <c r="D11" t="n">
-        <v>2.853</v>
+        <v>4.561</v>
       </c>
       <c r="E11" t="n">
-        <v>2.968</v>
+        <v>4.881</v>
       </c>
       <c r="F11" t="n">
-        <v>3.025</v>
+        <v>6.628</v>
       </c>
       <c r="G11" t="n">
-        <v>3.048</v>
+        <v>5.863</v>
       </c>
       <c r="H11" t="n">
-        <v>3.082</v>
+        <v>6.841</v>
       </c>
       <c r="I11" t="n">
-        <v>3.104</v>
+        <v>6.118</v>
       </c>
       <c r="J11" t="n">
-        <v>3.137</v>
+        <v>5.352</v>
       </c>
       <c r="K11" t="n">
-        <v>3.16</v>
+        <v>5.414</v>
       </c>
       <c r="L11" t="n">
-        <v>3.193</v>
+        <v>5.506</v>
       </c>
       <c r="M11" t="n">
-        <v>3.247</v>
+        <v>5.659</v>
       </c>
       <c r="N11" t="n">
-        <v>3.302</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="12">
@@ -941,43 +941,89 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.101</v>
+        <v>5.633</v>
       </c>
       <c r="C12" t="n">
-        <v>17.473</v>
+        <v>5.846</v>
       </c>
       <c r="D12" t="n">
-        <v>17.841</v>
+        <v>6.059</v>
       </c>
       <c r="E12" t="n">
-        <v>18.567</v>
+        <v>6.483</v>
       </c>
       <c r="F12" t="n">
-        <v>18.924</v>
+        <v>8.805</v>
       </c>
       <c r="G12" t="n">
-        <v>19.067</v>
+        <v>7.788</v>
       </c>
       <c r="H12" t="n">
-        <v>19.279</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>19.419</v>
+        <v>8.128</v>
       </c>
       <c r="J12" t="n">
-        <v>19.629</v>
+        <v>7.109</v>
       </c>
       <c r="K12" t="n">
-        <v>19.768</v>
+        <v>7.191</v>
       </c>
       <c r="L12" t="n">
-        <v>19.976</v>
+        <v>7.314</v>
       </c>
       <c r="M12" t="n">
-        <v>20.319</v>
+        <v>7.517</v>
       </c>
       <c r="N12" t="n">
-        <v>20.659</v>
+        <v>7.718</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.601</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.689</v>
       </c>
     </row>
   </sheetData>

--- a/data/init_montage_table.xlsx
+++ b/data/init_montage_table.xlsx
@@ -527,43 +527,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-39.52874949013107</v>
+        <v>-45.10157721253326</v>
       </c>
       <c r="C3" t="n">
-        <v>-34.52874949013107</v>
+        <v>-40.10157721253326</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.52874949013107</v>
+        <v>-35.10157721253326</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.52874949013107</v>
+        <v>-25.10157721253326</v>
       </c>
       <c r="F3" t="n">
-        <v>-14.52874949013107</v>
+        <v>-20.10157721253326</v>
       </c>
       <c r="G3" t="n">
-        <v>-12.52874949013107</v>
+        <v>-18.10157721253326</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.528749490131069</v>
+        <v>-15.10157721253326</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.528749490131069</v>
+        <v>-13.10157721253326</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.528749490131069</v>
+        <v>-10.10157721253326</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.528749490131069</v>
+        <v>-8.101577212533257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4712505098689306</v>
+        <v>-5.101577212533257</v>
       </c>
       <c r="M3" t="n">
-        <v>5.471250509868931</v>
+        <v>-0.1015772125332575</v>
       </c>
       <c r="N3" t="n">
-        <v>10.47125050986893</v>
+        <v>4.898422787466743</v>
       </c>
     </row>
     <row r="4">
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.55200000000001</v>
+        <v>73.55200000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>63.169</v>
+        <v>70.62</v>
       </c>
       <c r="D5" t="n">
-        <v>60.952</v>
+        <v>67.887</v>
       </c>
       <c r="E5" t="n">
-        <v>56.97</v>
+        <v>62.974</v>
       </c>
       <c r="F5" t="n">
-        <v>114.313</v>
+        <v>120.589</v>
       </c>
       <c r="G5" t="n">
-        <v>81.13200000000001</v>
+        <v>87.306</v>
       </c>
       <c r="H5" t="n">
-        <v>116.648</v>
+        <v>122.819</v>
       </c>
       <c r="I5" t="n">
-        <v>84.09</v>
+        <v>89.946</v>
       </c>
       <c r="J5" t="n">
-        <v>51.958</v>
+        <v>56.812</v>
       </c>
       <c r="K5" t="n">
-        <v>51.364</v>
+        <v>56.086</v>
       </c>
       <c r="L5" t="n">
-        <v>50.503</v>
+        <v>55.035</v>
       </c>
       <c r="M5" t="n">
-        <v>49.142</v>
+        <v>53.377</v>
       </c>
       <c r="N5" t="n">
-        <v>47.866</v>
+        <v>51.83</v>
       </c>
     </row>
     <row r="6">
@@ -665,43 +665,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.16</v>
+        <v>36.085</v>
       </c>
       <c r="C6" t="n">
-        <v>30.991</v>
+        <v>34.646</v>
       </c>
       <c r="D6" t="n">
-        <v>29.903</v>
+        <v>33.305</v>
       </c>
       <c r="E6" t="n">
-        <v>27.949</v>
+        <v>30.895</v>
       </c>
       <c r="F6" t="n">
-        <v>56.082</v>
+        <v>59.161</v>
       </c>
       <c r="G6" t="n">
-        <v>39.803</v>
+        <v>42.832</v>
       </c>
       <c r="H6" t="n">
-        <v>57.228</v>
+        <v>60.255</v>
       </c>
       <c r="I6" t="n">
-        <v>41.255</v>
+        <v>44.128</v>
       </c>
       <c r="J6" t="n">
-        <v>25.491</v>
+        <v>27.872</v>
       </c>
       <c r="K6" t="n">
-        <v>25.199</v>
+        <v>27.516</v>
       </c>
       <c r="L6" t="n">
-        <v>24.777</v>
+        <v>27</v>
       </c>
       <c r="M6" t="n">
-        <v>24.109</v>
+        <v>26.187</v>
       </c>
       <c r="N6" t="n">
-        <v>23.483</v>
+        <v>25.428</v>
       </c>
     </row>
     <row r="7">
@@ -711,43 +711,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1998.043</v>
+        <v>2241.885</v>
       </c>
       <c r="C7" t="n">
-        <v>1925.409</v>
+        <v>2152.517</v>
       </c>
       <c r="D7" t="n">
-        <v>1857.834</v>
+        <v>2069.215</v>
       </c>
       <c r="E7" t="n">
-        <v>1736.461</v>
+        <v>1919.465</v>
       </c>
       <c r="F7" t="n">
-        <v>1279.222</v>
+        <v>1345.878</v>
       </c>
       <c r="G7" t="n">
-        <v>1445.798</v>
+        <v>1545.029</v>
       </c>
       <c r="H7" t="n">
-        <v>1239.48</v>
+        <v>1300.333</v>
       </c>
       <c r="I7" t="n">
-        <v>1385.533</v>
+        <v>1474.329</v>
       </c>
       <c r="J7" t="n">
-        <v>1583.694</v>
+        <v>1731.645</v>
       </c>
       <c r="K7" t="n">
-        <v>1565.589</v>
+        <v>1709.517</v>
       </c>
       <c r="L7" t="n">
-        <v>1539.345</v>
+        <v>1677.482</v>
       </c>
       <c r="M7" t="n">
-        <v>1497.862</v>
+        <v>1626.946</v>
       </c>
       <c r="N7" t="n">
-        <v>1458.969</v>
+        <v>1579.793</v>
       </c>
     </row>
     <row r="8">
@@ -757,43 +757,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.074</v>
+        <v>30.013</v>
       </c>
       <c r="C8" t="n">
-        <v>23.199</v>
+        <v>28.816</v>
       </c>
       <c r="D8" t="n">
-        <v>22.384</v>
+        <v>27.701</v>
       </c>
       <c r="E8" t="n">
-        <v>20.921</v>
+        <v>25.697</v>
       </c>
       <c r="F8" t="n">
-        <v>41.981</v>
+        <v>49.207</v>
       </c>
       <c r="G8" t="n">
-        <v>29.795</v>
+        <v>35.625</v>
       </c>
       <c r="H8" t="n">
-        <v>42.839</v>
+        <v>50.116</v>
       </c>
       <c r="I8" t="n">
-        <v>30.882</v>
+        <v>36.703</v>
       </c>
       <c r="J8" t="n">
-        <v>19.082</v>
+        <v>23.182</v>
       </c>
       <c r="K8" t="n">
-        <v>18.863</v>
+        <v>22.886</v>
       </c>
       <c r="L8" t="n">
-        <v>18.547</v>
+        <v>22.457</v>
       </c>
       <c r="M8" t="n">
-        <v>18.047</v>
+        <v>21.781</v>
       </c>
       <c r="N8" t="n">
-        <v>17.578</v>
+        <v>21.149</v>
       </c>
     </row>
     <row r="9">
@@ -803,43 +803,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.797</v>
+        <v>4.275</v>
       </c>
       <c r="C9" t="n">
-        <v>4.978</v>
+        <v>4.452</v>
       </c>
       <c r="D9" t="n">
-        <v>5.159</v>
+        <v>4.632</v>
       </c>
       <c r="E9" t="n">
-        <v>5.52</v>
+        <v>4.993</v>
       </c>
       <c r="F9" t="n">
-        <v>7.496</v>
+        <v>7.124</v>
       </c>
       <c r="G9" t="n">
-        <v>6.631</v>
+        <v>6.205</v>
       </c>
       <c r="H9" t="n">
-        <v>7.737</v>
+        <v>7.374</v>
       </c>
       <c r="I9" t="n">
-        <v>6.92</v>
+        <v>6.503</v>
       </c>
       <c r="J9" t="n">
-        <v>6.053</v>
+        <v>5.535</v>
       </c>
       <c r="K9" t="n">
-        <v>6.123</v>
+        <v>5.607</v>
       </c>
       <c r="L9" t="n">
-        <v>6.228</v>
+        <v>5.714</v>
       </c>
       <c r="M9" t="n">
-        <v>6.4</v>
+        <v>5.892</v>
       </c>
       <c r="N9" t="n">
-        <v>6.571</v>
+        <v>6.068</v>
       </c>
     </row>
     <row r="10">
@@ -849,43 +849,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.623</v>
+        <v>5.902</v>
       </c>
       <c r="C10" t="n">
-        <v>6.874</v>
+        <v>6.148</v>
       </c>
       <c r="D10" t="n">
-        <v>7.124</v>
+        <v>6.395</v>
       </c>
       <c r="E10" t="n">
-        <v>7.623</v>
+        <v>6.895</v>
       </c>
       <c r="F10" t="n">
-        <v>10.354</v>
+        <v>9.839</v>
       </c>
       <c r="G10" t="n">
-        <v>9.157999999999999</v>
+        <v>8.569000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>10.686</v>
+        <v>10.185</v>
       </c>
       <c r="I10" t="n">
-        <v>9.557</v>
+        <v>8.98</v>
       </c>
       <c r="J10" t="n">
-        <v>8.359</v>
+        <v>7.644</v>
       </c>
       <c r="K10" t="n">
-        <v>8.456</v>
+        <v>7.743</v>
       </c>
       <c r="L10" t="n">
-        <v>8.6</v>
+        <v>7.891</v>
       </c>
       <c r="M10" t="n">
-        <v>8.839</v>
+        <v>8.137</v>
       </c>
       <c r="N10" t="n">
-        <v>9.074999999999999</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -895,43 +895,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.241</v>
+        <v>3.78</v>
       </c>
       <c r="C11" t="n">
-        <v>4.401</v>
+        <v>3.937</v>
       </c>
       <c r="D11" t="n">
-        <v>4.561</v>
+        <v>4.095</v>
       </c>
       <c r="E11" t="n">
-        <v>4.881</v>
+        <v>4.415</v>
       </c>
       <c r="F11" t="n">
-        <v>6.628</v>
+        <v>6.299</v>
       </c>
       <c r="G11" t="n">
-        <v>5.863</v>
+        <v>5.486</v>
       </c>
       <c r="H11" t="n">
-        <v>6.841</v>
+        <v>6.52</v>
       </c>
       <c r="I11" t="n">
-        <v>6.118</v>
+        <v>5.749</v>
       </c>
       <c r="J11" t="n">
-        <v>5.352</v>
+        <v>4.894</v>
       </c>
       <c r="K11" t="n">
-        <v>5.414</v>
+        <v>4.958</v>
       </c>
       <c r="L11" t="n">
-        <v>5.506</v>
+        <v>5.052</v>
       </c>
       <c r="M11" t="n">
-        <v>5.659</v>
+        <v>5.209</v>
       </c>
       <c r="N11" t="n">
-        <v>5.81</v>
+        <v>5.365</v>
       </c>
     </row>
     <row r="12">
@@ -941,43 +941,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.633</v>
+        <v>5.02</v>
       </c>
       <c r="C12" t="n">
-        <v>5.846</v>
+        <v>5.229</v>
       </c>
       <c r="D12" t="n">
-        <v>6.059</v>
+        <v>5.439</v>
       </c>
       <c r="E12" t="n">
-        <v>6.483</v>
+        <v>5.864</v>
       </c>
       <c r="F12" t="n">
-        <v>8.805</v>
+        <v>8.368</v>
       </c>
       <c r="G12" t="n">
-        <v>7.788</v>
+        <v>7.287</v>
       </c>
       <c r="H12" t="n">
-        <v>9.087999999999999</v>
+        <v>8.661</v>
       </c>
       <c r="I12" t="n">
-        <v>8.128</v>
+        <v>7.637</v>
       </c>
       <c r="J12" t="n">
-        <v>7.109</v>
+        <v>6.501</v>
       </c>
       <c r="K12" t="n">
-        <v>7.191</v>
+        <v>6.585</v>
       </c>
       <c r="L12" t="n">
-        <v>7.314</v>
+        <v>6.711</v>
       </c>
       <c r="M12" t="n">
-        <v>7.517</v>
+        <v>6.92</v>
       </c>
       <c r="N12" t="n">
-        <v>7.718</v>
+        <v>7.127</v>
       </c>
     </row>
     <row r="13">
@@ -987,43 +987,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.234</v>
+        <v>1.099</v>
       </c>
       <c r="C13" t="n">
-        <v>1.28</v>
+        <v>1.145</v>
       </c>
       <c r="D13" t="n">
-        <v>1.327</v>
+        <v>1.191</v>
       </c>
       <c r="E13" t="n">
-        <v>1.419</v>
+        <v>1.284</v>
       </c>
       <c r="F13" t="n">
-        <v>1.927</v>
+        <v>1.831</v>
       </c>
       <c r="G13" t="n">
-        <v>1.705</v>
+        <v>1.595</v>
       </c>
       <c r="H13" t="n">
-        <v>1.989</v>
+        <v>1.896</v>
       </c>
       <c r="I13" t="n">
-        <v>1.779</v>
+        <v>1.672</v>
       </c>
       <c r="J13" t="n">
-        <v>1.556</v>
+        <v>1.423</v>
       </c>
       <c r="K13" t="n">
-        <v>1.574</v>
+        <v>1.442</v>
       </c>
       <c r="L13" t="n">
-        <v>1.601</v>
+        <v>1.469</v>
       </c>
       <c r="M13" t="n">
-        <v>1.646</v>
+        <v>1.515</v>
       </c>
       <c r="N13" t="n">
-        <v>1.689</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/init_montage_table.xlsx
+++ b/data/init_montage_table.xlsx
@@ -527,43 +527,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.10157721253326</v>
+        <v>-42.06185300031389</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.10157721253326</v>
+        <v>-37.06185300031389</v>
       </c>
       <c r="D3" t="n">
-        <v>-35.10157721253326</v>
+        <v>-32.06185300031389</v>
       </c>
       <c r="E3" t="n">
-        <v>-25.10157721253326</v>
+        <v>-22.06185300031389</v>
       </c>
       <c r="F3" t="n">
-        <v>-20.10157721253326</v>
+        <v>-17.06185300031389</v>
       </c>
       <c r="G3" t="n">
-        <v>-18.10157721253326</v>
+        <v>-15.06185300031389</v>
       </c>
       <c r="H3" t="n">
-        <v>-15.10157721253326</v>
+        <v>-12.06185300031389</v>
       </c>
       <c r="I3" t="n">
-        <v>-13.10157721253326</v>
+        <v>-10.06185300031389</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.10157721253326</v>
+        <v>-7.061853000313889</v>
       </c>
       <c r="K3" t="n">
-        <v>-8.101577212533257</v>
+        <v>-5.061853000313889</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.101577212533257</v>
+        <v>-2.061853000313889</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1015772125332575</v>
+        <v>2.938146999686111</v>
       </c>
       <c r="N3" t="n">
-        <v>4.898422787466743</v>
+        <v>7.938146999686111</v>
       </c>
     </row>
     <row r="4">
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.55200000000001</v>
+        <v>63.285</v>
       </c>
       <c r="C5" t="n">
-        <v>70.62</v>
+        <v>61.06</v>
       </c>
       <c r="D5" t="n">
-        <v>67.887</v>
+        <v>58.99</v>
       </c>
       <c r="E5" t="n">
-        <v>62.974</v>
+        <v>55.269</v>
       </c>
       <c r="F5" t="n">
-        <v>120.589</v>
+        <v>112.69</v>
       </c>
       <c r="G5" t="n">
-        <v>87.306</v>
+        <v>79.84099999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>122.819</v>
+        <v>115.168</v>
       </c>
       <c r="I5" t="n">
-        <v>89.946</v>
+        <v>82.76900000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>56.812</v>
+        <v>50.574</v>
       </c>
       <c r="K5" t="n">
-        <v>56.086</v>
+        <v>50.017</v>
       </c>
       <c r="L5" t="n">
-        <v>55.035</v>
+        <v>49.208</v>
       </c>
       <c r="M5" t="n">
-        <v>53.377</v>
+        <v>47.928</v>
       </c>
       <c r="N5" t="n">
-        <v>51.83</v>
+        <v>46.727</v>
       </c>
     </row>
     <row r="6">
@@ -665,43 +665,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.085</v>
+        <v>31.048</v>
       </c>
       <c r="C6" t="n">
-        <v>34.646</v>
+        <v>29.956</v>
       </c>
       <c r="D6" t="n">
-        <v>33.305</v>
+        <v>28.94</v>
       </c>
       <c r="E6" t="n">
-        <v>30.895</v>
+        <v>27.115</v>
       </c>
       <c r="F6" t="n">
-        <v>59.161</v>
+        <v>55.286</v>
       </c>
       <c r="G6" t="n">
-        <v>42.832</v>
+        <v>39.17</v>
       </c>
       <c r="H6" t="n">
-        <v>60.255</v>
+        <v>56.501</v>
       </c>
       <c r="I6" t="n">
-        <v>44.128</v>
+        <v>40.606</v>
       </c>
       <c r="J6" t="n">
-        <v>27.872</v>
+        <v>24.812</v>
       </c>
       <c r="K6" t="n">
-        <v>27.516</v>
+        <v>24.538</v>
       </c>
       <c r="L6" t="n">
-        <v>27</v>
+        <v>24.141</v>
       </c>
       <c r="M6" t="n">
-        <v>26.187</v>
+        <v>23.513</v>
       </c>
       <c r="N6" t="n">
-        <v>25.428</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="7">
@@ -711,43 +711,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2241.885</v>
+        <v>1928.944</v>
       </c>
       <c r="C7" t="n">
-        <v>2152.517</v>
+        <v>1861.126</v>
       </c>
       <c r="D7" t="n">
-        <v>2069.215</v>
+        <v>1798.031</v>
       </c>
       <c r="E7" t="n">
-        <v>1919.465</v>
+        <v>1684.614</v>
       </c>
       <c r="F7" t="n">
-        <v>1345.878</v>
+        <v>1257.718</v>
       </c>
       <c r="G7" t="n">
-        <v>1545.029</v>
+        <v>1412.923</v>
       </c>
       <c r="H7" t="n">
-        <v>1300.333</v>
+        <v>1219.329</v>
       </c>
       <c r="I7" t="n">
-        <v>1474.329</v>
+        <v>1356.689</v>
       </c>
       <c r="J7" t="n">
-        <v>1731.645</v>
+        <v>1541.509</v>
       </c>
       <c r="K7" t="n">
-        <v>1709.517</v>
+        <v>1524.532</v>
       </c>
       <c r="L7" t="n">
-        <v>1677.482</v>
+        <v>1499.873</v>
       </c>
       <c r="M7" t="n">
-        <v>1626.946</v>
+        <v>1460.859</v>
       </c>
       <c r="N7" t="n">
-        <v>1579.793</v>
+        <v>1424.252</v>
       </c>
     </row>
     <row r="8">
@@ -757,43 +757,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.013</v>
+        <v>25.824</v>
       </c>
       <c r="C8" t="n">
-        <v>28.816</v>
+        <v>24.916</v>
       </c>
       <c r="D8" t="n">
-        <v>27.701</v>
+        <v>24.071</v>
       </c>
       <c r="E8" t="n">
-        <v>25.697</v>
+        <v>22.553</v>
       </c>
       <c r="F8" t="n">
-        <v>49.207</v>
+        <v>45.984</v>
       </c>
       <c r="G8" t="n">
-        <v>35.625</v>
+        <v>32.579</v>
       </c>
       <c r="H8" t="n">
-        <v>50.116</v>
+        <v>46.994</v>
       </c>
       <c r="I8" t="n">
-        <v>36.703</v>
+        <v>33.774</v>
       </c>
       <c r="J8" t="n">
-        <v>23.182</v>
+        <v>20.637</v>
       </c>
       <c r="K8" t="n">
-        <v>22.886</v>
+        <v>20.409</v>
       </c>
       <c r="L8" t="n">
-        <v>22.457</v>
+        <v>20.079</v>
       </c>
       <c r="M8" t="n">
-        <v>21.781</v>
+        <v>19.557</v>
       </c>
       <c r="N8" t="n">
-        <v>21.149</v>
+        <v>19.067</v>
       </c>
     </row>
     <row r="9">
@@ -803,43 +803,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.275</v>
+        <v>4.969</v>
       </c>
       <c r="C9" t="n">
-        <v>4.452</v>
+        <v>5.15</v>
       </c>
       <c r="D9" t="n">
-        <v>4.632</v>
+        <v>5.331</v>
       </c>
       <c r="E9" t="n">
-        <v>4.993</v>
+        <v>5.69</v>
       </c>
       <c r="F9" t="n">
-        <v>7.124</v>
+        <v>7.625</v>
       </c>
       <c r="G9" t="n">
-        <v>6.205</v>
+        <v>6.786</v>
       </c>
       <c r="H9" t="n">
-        <v>7.374</v>
+        <v>7.865</v>
       </c>
       <c r="I9" t="n">
-        <v>6.503</v>
+        <v>7.067</v>
       </c>
       <c r="J9" t="n">
-        <v>5.535</v>
+        <v>6.219</v>
       </c>
       <c r="K9" t="n">
-        <v>5.607</v>
+        <v>6.288</v>
       </c>
       <c r="L9" t="n">
-        <v>5.714</v>
+        <v>6.392</v>
       </c>
       <c r="M9" t="n">
-        <v>5.892</v>
+        <v>6.563</v>
       </c>
       <c r="N9" t="n">
-        <v>6.068</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="10">
@@ -849,43 +849,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.902</v>
+        <v>6.861</v>
       </c>
       <c r="C10" t="n">
-        <v>6.148</v>
+        <v>7.111</v>
       </c>
       <c r="D10" t="n">
-        <v>6.395</v>
+        <v>7.361</v>
       </c>
       <c r="E10" t="n">
-        <v>6.895</v>
+        <v>7.858</v>
       </c>
       <c r="F10" t="n">
-        <v>9.839</v>
+        <v>10.531</v>
       </c>
       <c r="G10" t="n">
-        <v>8.569000000000001</v>
+        <v>9.372</v>
       </c>
       <c r="H10" t="n">
-        <v>10.185</v>
+        <v>10.864</v>
       </c>
       <c r="I10" t="n">
-        <v>8.98</v>
+        <v>9.760999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>7.644</v>
+        <v>8.587999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>7.743</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>7.891</v>
+        <v>8.827</v>
       </c>
       <c r="M10" t="n">
-        <v>8.137</v>
+        <v>9.063000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>8.380000000000001</v>
+        <v>9.297000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -895,43 +895,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.78</v>
+        <v>4.393</v>
       </c>
       <c r="C11" t="n">
-        <v>3.937</v>
+        <v>4.553</v>
       </c>
       <c r="D11" t="n">
-        <v>4.095</v>
+        <v>4.713</v>
       </c>
       <c r="E11" t="n">
-        <v>4.415</v>
+        <v>5.031</v>
       </c>
       <c r="F11" t="n">
-        <v>6.299</v>
+        <v>6.741</v>
       </c>
       <c r="G11" t="n">
-        <v>5.486</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>6.52</v>
+        <v>6.954</v>
       </c>
       <c r="I11" t="n">
-        <v>5.749</v>
+        <v>6.249</v>
       </c>
       <c r="J11" t="n">
-        <v>4.894</v>
+        <v>5.498</v>
       </c>
       <c r="K11" t="n">
-        <v>4.958</v>
+        <v>5.56</v>
       </c>
       <c r="L11" t="n">
-        <v>5.052</v>
+        <v>5.651</v>
       </c>
       <c r="M11" t="n">
-        <v>5.209</v>
+        <v>5.802</v>
       </c>
       <c r="N11" t="n">
-        <v>5.365</v>
+        <v>5.952</v>
       </c>
     </row>
     <row r="12">
@@ -941,43 +941,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.02</v>
+        <v>5.835</v>
       </c>
       <c r="C12" t="n">
-        <v>5.229</v>
+        <v>6.048</v>
       </c>
       <c r="D12" t="n">
-        <v>5.439</v>
+        <v>6.261</v>
       </c>
       <c r="E12" t="n">
-        <v>5.864</v>
+        <v>6.683</v>
       </c>
       <c r="F12" t="n">
-        <v>8.368</v>
+        <v>8.956</v>
       </c>
       <c r="G12" t="n">
-        <v>7.287</v>
+        <v>7.97</v>
       </c>
       <c r="H12" t="n">
-        <v>8.661</v>
+        <v>9.238</v>
       </c>
       <c r="I12" t="n">
-        <v>7.637</v>
+        <v>8.301</v>
       </c>
       <c r="J12" t="n">
-        <v>6.501</v>
+        <v>7.304</v>
       </c>
       <c r="K12" t="n">
-        <v>6.585</v>
+        <v>7.385</v>
       </c>
       <c r="L12" t="n">
-        <v>6.711</v>
+        <v>7.507</v>
       </c>
       <c r="M12" t="n">
-        <v>6.92</v>
+        <v>7.708</v>
       </c>
       <c r="N12" t="n">
-        <v>7.127</v>
+        <v>7.906</v>
       </c>
     </row>
     <row r="13">
@@ -987,43 +987,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.099</v>
+        <v>1.278</v>
       </c>
       <c r="C13" t="n">
-        <v>1.145</v>
+        <v>1.324</v>
       </c>
       <c r="D13" t="n">
-        <v>1.191</v>
+        <v>1.371</v>
       </c>
       <c r="E13" t="n">
-        <v>1.284</v>
+        <v>1.463</v>
       </c>
       <c r="F13" t="n">
-        <v>1.831</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>1.595</v>
+        <v>1.745</v>
       </c>
       <c r="H13" t="n">
-        <v>1.896</v>
+        <v>2.022</v>
       </c>
       <c r="I13" t="n">
-        <v>1.672</v>
+        <v>1.817</v>
       </c>
       <c r="J13" t="n">
-        <v>1.423</v>
+        <v>1.599</v>
       </c>
       <c r="K13" t="n">
-        <v>1.442</v>
+        <v>1.617</v>
       </c>
       <c r="L13" t="n">
-        <v>1.469</v>
+        <v>1.643</v>
       </c>
       <c r="M13" t="n">
-        <v>1.515</v>
+        <v>1.687</v>
       </c>
       <c r="N13" t="n">
-        <v>1.56</v>
+        <v>1.731</v>
       </c>
     </row>
   </sheetData>
